--- a/B0018/models/lstm/test_results_B0018.xlsx
+++ b/B0018/models/lstm/test_results_B0018.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardodalronco/Documents/Università degli studi Guglielmo Marconi/Laurea/Progetto/Progetti/battery_LSTM_explainability/B0018/models/lstm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547429FB-1630-134A-BE36-E2A360F0AEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,17 +34,17 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>MAPE (%)</t>
+    <t>MAE</t>
   </si>
   <si>
-    <t>MAE</t>
+    <t>MAPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,17 +77,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -119,7 +133,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -153,6 +167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -187,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,14 +378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,33 +401,33 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.843195531708999</v>
       </c>
       <c r="B2">
-        <v>1.839825987815857</v>
+        <v>1.8398259878158569</v>
       </c>
       <c r="D2">
-        <v>0.0005176086910237764</v>
+        <v>5.1760869102377642E-4</v>
       </c>
       <c r="E2">
-        <v>0.02275101516468609</v>
+        <v>2.2751015164686091E-2</v>
       </c>
       <c r="F2">
-        <v>0.02275101516468609</v>
+        <v>1.01782660774673E-2</v>
       </c>
       <c r="G2">
-        <v>0.01566688777924455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1.5666887779244552E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.839601842435542</v>
       </c>
@@ -417,15 +435,15 @@
         <v>1.831523656845093</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.830673604496205</v>
+        <v>1.8306736044962051</v>
       </c>
       <c r="B4">
-        <v>1.831999182701111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1.8319991827011111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.832700206941966</v>
       </c>
@@ -433,39 +451,39 @@
         <v>1.827319264411926</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.828528884604639</v>
       </c>
       <c r="B6">
-        <v>1.820972442626953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.8209724426269529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.821201189569792</v>
+        <v>1.8212011895697919</v>
       </c>
       <c r="B7">
-        <v>1.816501498222351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1.8165014982223511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.815170010643328</v>
+        <v>1.8151700106433279</v>
       </c>
       <c r="B8">
         <v>1.812427282333374</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.804298052096765</v>
+        <v>1.8042980520967651</v>
       </c>
       <c r="B9">
         <v>1.809481143951416</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.823100230284423</v>
       </c>
@@ -473,15 +491,15 @@
         <v>1.800279855728149</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.812125352025549</v>
+        <v>1.8121253520255489</v>
       </c>
       <c r="B11">
         <v>1.817567706108093</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.804691638211777</v>
       </c>
@@ -489,15 +507,15 @@
         <v>1.804994463920593</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1.790844349786295</v>
+        <v>1.7908443497862949</v>
       </c>
       <c r="B13">
         <v>1.799526453018188</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.783470722841926</v>
       </c>
@@ -505,23 +523,23 @@
         <v>1.788836717605591</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.78093861253107</v>
       </c>
       <c r="B15">
-        <v>1.783808469772339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1.7838084697723391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.771209039672698</v>
       </c>
       <c r="B16">
-        <v>1.779388189315796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>1.7793881893157959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.768630399670708</v>
       </c>
@@ -529,7 +547,7 @@
         <v>1.766412019729614</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.753630480191712</v>
       </c>
@@ -537,23 +555,23 @@
         <v>1.762706875801086</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1.746219741641509</v>
+        <v>1.7462197416415091</v>
       </c>
       <c r="B19">
-        <v>1.751316785812378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>1.7513167858123779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1.737664733705374</v>
+        <v>1.7376647337053741</v>
       </c>
       <c r="B20">
         <v>1.748038053512573</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.731516673547584</v>
       </c>
@@ -561,7 +579,7 @@
         <v>1.741488099098206</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.70859498944706</v>
       </c>
@@ -569,7 +587,7 @@
         <v>1.737932562828064</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.711469957068211</v>
       </c>
@@ -577,7 +595,7 @@
         <v>1.716795921325684</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.707502137327263</v>
       </c>
@@ -585,15 +603,15 @@
         <v>1.71595299243927</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.749238206436023</v>
       </c>
       <c r="B25">
-        <v>1.714159607887268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1.7141596078872681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.732769714742995</v>
       </c>
@@ -601,23 +619,23 @@
         <v>1.752180933952332</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.722231332829238</v>
       </c>
       <c r="B27">
-        <v>1.733840107917786</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>1.7338401079177861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.711846298984729</v>
       </c>
       <c r="B28">
-        <v>1.719626069068909</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>1.7196260690689089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.699267835126687</v>
       </c>
@@ -625,31 +643,31 @@
         <v>1.709579706192017</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1.694036643924311</v>
+        <v>1.6940366439243111</v>
       </c>
       <c r="B30">
         <v>1.698893785476685</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.681902707876809</v>
       </c>
       <c r="B31">
-        <v>1.694325089454651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>1.6943250894546511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.676977061843369</v>
       </c>
       <c r="B32">
-        <v>1.683578968048096</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.6835789680480959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.665522930647894</v>
       </c>
@@ -657,31 +675,31 @@
         <v>1.676568984985352</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.657192457583208</v>
       </c>
       <c r="B34">
-        <v>1.66401481628418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>1.6640148162841799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.648224155529405</v>
       </c>
       <c r="B35">
-        <v>1.655818939208984</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>1.6558189392089839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1.638770149798726</v>
+        <v>1.6387701497987259</v>
       </c>
       <c r="B36">
-        <v>1.649298906326294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>1.6492989063262939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.627648690726206</v>
       </c>
@@ -689,15 +707,15 @@
         <v>1.642544746398926</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1.62215370227252</v>
+        <v>1.6221537022725201</v>
       </c>
       <c r="B38">
         <v>1.632168769836426</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.614006651046759</v>
       </c>
@@ -705,15 +723,15 @@
         <v>1.624234795570374</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1.676051615442462</v>
+        <v>1.6760516154424621</v>
       </c>
       <c r="B40">
         <v>1.61496365070343</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.649300642552199</v>
       </c>
@@ -721,31 +739,31 @@
         <v>1.678051114082336</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1.63238299185809</v>
+        <v>1.6323829918580901</v>
       </c>
       <c r="B42">
         <v>1.650559067726135</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1.616415971902578</v>
+        <v>1.6164159719025779</v>
       </c>
       <c r="B43">
         <v>1.637332558631897</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1.610902837824938</v>
+        <v>1.6109028378249379</v>
       </c>
       <c r="B44">
-        <v>1.623005032539368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>1.6230050325393679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.595463869369566</v>
       </c>
@@ -753,7 +771,7 @@
         <v>1.618549108505249</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.726707440085764</v>
       </c>
@@ -761,15 +779,15 @@
         <v>1.602686882019043</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1.716567391742975</v>
+        <v>1.7165673917429749</v>
       </c>
       <c r="B47">
         <v>1.716536164283752</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.695823557093485</v>
       </c>
@@ -777,47 +795,47 @@
         <v>1.718528032302856</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1.677778319079256</v>
+        <v>1.6777783190792559</v>
       </c>
       <c r="B49">
         <v>1.699398875236511</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1.660658689777419</v>
+        <v>1.6606586897774189</v>
       </c>
       <c r="B50">
-        <v>1.681558966636658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>1.6815589666366579</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1.666410927482747</v>
       </c>
       <c r="B51">
-        <v>1.665052771568298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>1.6650527715682979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1.64683361744078</v>
+        <v>1.6468336174407801</v>
       </c>
       <c r="B52">
         <v>1.665320158004761</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1.625763992877995</v>
       </c>
       <c r="B53">
-        <v>1.647322058677673</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>1.6473220586776729</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.612157741187459</v>
       </c>
@@ -825,23 +843,23 @@
         <v>1.630049467086792</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1.605736682375534</v>
+        <v>1.6057366823755339</v>
       </c>
       <c r="B55">
-        <v>1.618576169013977</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>1.6185761690139771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1.673645314879889</v>
+        <v>1.6736453148798891</v>
       </c>
       <c r="B56">
-        <v>1.610581278800964</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>1.6105812788009639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.640434857234994</v>
       </c>
@@ -849,47 +867,47 @@
         <v>1.663713932037354</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1.613265331742208</v>
+        <v>1.6132653317422081</v>
       </c>
       <c r="B58">
-        <v>1.642758011817932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>1.6427580118179319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.592096432468628</v>
       </c>
       <c r="B59">
-        <v>1.616095066070557</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>1.6160950660705571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1.586601182069882</v>
       </c>
       <c r="B60">
-        <v>1.594568490982056</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>1.5945684909820561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.580076649033625</v>
+        <v>1.5800766490336251</v>
       </c>
       <c r="B61">
         <v>1.590736985206604</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1.564173295328917</v>
+        <v>1.5641732953289169</v>
       </c>
       <c r="B62">
-        <v>1.583835482597351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1.5838354825973511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1.555618272193922</v>
       </c>
@@ -897,31 +915,31 @@
         <v>1.567901611328125</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1.54020452786374</v>
       </c>
       <c r="B64">
-        <v>1.559299468994141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>1.5592994689941411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1.532161301595986</v>
+        <v>1.5321613015959861</v>
       </c>
       <c r="B65">
         <v>1.544402122497559</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1.531623240369341</v>
+        <v>1.5316232403693411</v>
       </c>
       <c r="B66">
         <v>1.536792635917664</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1.522259595077198</v>
       </c>
@@ -929,175 +947,175 @@
         <v>1.536100506782532</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1.506526712685128</v>
+        <v>1.5065267126851281</v>
       </c>
       <c r="B68">
-        <v>1.528563022613525</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1.5285630226135249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1.501421955653293</v>
+        <v>1.5014219556532931</v>
       </c>
       <c r="B69">
         <v>1.513114929199219</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1.496353411748646</v>
+        <v>1.4963534117486459</v>
       </c>
       <c r="B70">
         <v>1.508575439453125</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1.533426200031242</v>
       </c>
       <c r="B71">
-        <v>1.503040432929993</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>1.5030404329299929</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1.523845267514426</v>
+        <v>1.5238452675144261</v>
       </c>
       <c r="B72">
-        <v>1.537407636642456</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>1.5374076366424561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.501192099426124</v>
+        <v>1.5011920994261241</v>
       </c>
       <c r="B73">
-        <v>1.527843952178955</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1.5278439521789551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.492417671450291</v>
       </c>
       <c r="B74">
-        <v>1.50296425819397</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>1.5029642581939699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1.483323851940123</v>
+        <v>1.4833238519401231</v>
       </c>
       <c r="B75">
         <v>1.495657682418823</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.48073767922942</v>
       </c>
       <c r="B76">
-        <v>1.487434148788452</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>1.4874341487884519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1.473507780990248</v>
+        <v>1.4735077809902479</v>
       </c>
       <c r="B77">
-        <v>1.484601855278015</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>1.4846018552780149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1.46801928526661</v>
+        <v>1.4680192852666101</v>
       </c>
       <c r="B78">
         <v>1.47838306427002</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1.458092355711902</v>
+        <v>1.4580923557119021</v>
       </c>
       <c r="B79">
-        <v>1.470688343048096</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>1.4706883430480959</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1.44786609888914</v>
+        <v>1.4478660988891401</v>
       </c>
       <c r="B80">
-        <v>1.46205997467041</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>1.4620599746704099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.452780877754198</v>
       </c>
       <c r="B81">
-        <v>1.453206300735474</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>1.4532063007354741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1.442535636449243</v>
       </c>
       <c r="B82">
-        <v>1.458816051483154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1.4588160514831541</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1.439271287720331</v>
+        <v>1.4392712877203311</v>
       </c>
       <c r="B83">
-        <v>1.448789358139038</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>1.4487893581390381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.428647568188822</v>
       </c>
       <c r="B84">
-        <v>1.444076538085938</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>1.4440765380859379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1.42490267500049</v>
+        <v>1.4249026750004901</v>
       </c>
       <c r="B85">
-        <v>1.432093381881714</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>1.4320933818817141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1.469811532452412</v>
+        <v>1.4698115324524119</v>
       </c>
       <c r="B86">
-        <v>1.428889751434326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>1.4288897514343259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1.45258196510502</v>
       </c>
       <c r="B87">
-        <v>1.473958253860474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>1.4739582538604741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1.442834198908794</v>
+        <v>1.4428341989087941</v>
       </c>
       <c r="B88">
-        <v>1.456826210021973</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>1.4568262100219731</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1.428376058807949</v>
       </c>
@@ -1105,47 +1123,47 @@
         <v>1.448766827583313</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1.415454784437072</v>
       </c>
       <c r="B90">
-        <v>1.435689687728882</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>1.4356896877288821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1.454576670077708</v>
+        <v>1.4545766700777081</v>
       </c>
       <c r="B91">
-        <v>1.42361044883728</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>1.4236104488372801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1.428317954827406</v>
+        <v>1.4283179548274061</v>
       </c>
       <c r="B92">
-        <v>1.456883668899536</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1.4568836688995359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1.419702688320406</v>
       </c>
       <c r="B93">
-        <v>1.432209014892578</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>1.4322090148925779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1.415560663030652</v>
+        <v>1.4155606630306521</v>
       </c>
       <c r="B94">
         <v>1.422631502151489</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1.405680035419228</v>
       </c>
@@ -1153,119 +1171,119 @@
         <v>1.417730331420898</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1.408446107116614</v>
+        <v>1.4084461071166141</v>
       </c>
       <c r="B96">
-        <v>1.40883994102478</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>1.4088399410247801</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1.396854778287241</v>
+        <v>1.3968547782872409</v>
       </c>
       <c r="B97">
         <v>1.411500096321106</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1.393567037144068</v>
       </c>
       <c r="B98">
-        <v>1.400578141212463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>1.4005781412124629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1.389364429280947</v>
+        <v>1.3893644292809471</v>
       </c>
       <c r="B99">
-        <v>1.397457718849182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>1.3974577188491819</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1.378565141566671</v>
+        <v>1.3785651415666711</v>
       </c>
       <c r="B100">
-        <v>1.39293646812439</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>1.3929364681243901</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1.384901110085747</v>
+        <v>1.3849011100857469</v>
       </c>
       <c r="B101">
         <v>1.381167054176331</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1.370325181424244</v>
+        <v>1.3703251814242441</v>
       </c>
       <c r="B102">
         <v>1.387781023979187</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1.373346438522908</v>
+        <v>1.3733464385229079</v>
       </c>
       <c r="B103">
-        <v>1.374682188034058</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>1.3746821880340581</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1.367948728550481</v>
       </c>
       <c r="B104">
-        <v>1.376980543136597</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>1.3769805431365969</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1.356714108708965</v>
+        <v>1.3567141087089649</v>
       </c>
       <c r="B105">
-        <v>1.370693325996399</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>1.3706933259963989</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1.460431020919458</v>
       </c>
       <c r="B106">
-        <v>1.359546780586243</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>1.3595467805862429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1.45009989371041</v>
+        <v>1.4500998937104099</v>
       </c>
       <c r="B107">
-        <v>1.467236518859863</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>1.4672365188598631</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1.43814069018245</v>
+        <v>1.4381406901824501</v>
       </c>
       <c r="B108">
         <v>1.455185532569885</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1.428368198096432</v>
       </c>
       <c r="B109">
-        <v>1.441080093383789</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>1.4410800933837891</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1.414787451755243</v>
       </c>
@@ -1273,15 +1291,15 @@
         <v>1.432131290435791</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1.413889163393182</v>
       </c>
       <c r="B111">
-        <v>1.420669436454773</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>1.4206694364547729</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1.398933166217722</v>
       </c>
@@ -1289,7 +1307,7 @@
         <v>1.419059753417969</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.395332258403398</v>
       </c>
@@ -1297,23 +1315,23 @@
         <v>1.405191898345947</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1.390046129540245</v>
+        <v>1.3900461295402451</v>
       </c>
       <c r="B114">
-        <v>1.39887261390686</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>1.3988726139068599</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1.386027145420965</v>
+        <v>1.3860271454209649</v>
       </c>
       <c r="B115">
-        <v>1.390182852745056</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>1.3901828527450559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1.388215260193751</v>
       </c>
@@ -1321,15 +1339,15 @@
         <v>1.386151790618896</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1.37618265623945</v>
+        <v>1.3761826562394499</v>
       </c>
       <c r="B117">
         <v>1.390669584274292</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.364716889864017</v>
       </c>
@@ -1337,116 +1355,116 @@
         <v>1.381861090660095</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1.358985473937358</v>
+        <v>1.3589854739373579</v>
       </c>
       <c r="B119">
-        <v>1.371228456497192</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>1.3712284564971919</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1.34623087640088</v>
+        <v>1.3462308764008799</v>
       </c>
       <c r="B120">
-        <v>1.36683452129364</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>1.3668345212936399</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1.426842781845464</v>
+        <v>1.4268427818454641</v>
       </c>
       <c r="B121">
         <v>1.355695247650146</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1.406448148327966</v>
+        <v>1.4064481483279661</v>
       </c>
       <c r="B122">
-        <v>1.433735370635986</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>1.4337353706359861</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.393490749207515</v>
       </c>
       <c r="B123">
-        <v>1.412843227386475</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>1.4128432273864751</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1.388249351224932</v>
+        <v>1.3882493512249321</v>
       </c>
       <c r="B124">
-        <v>1.398349046707153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>1.3983490467071531</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1.370187833842093</v>
       </c>
       <c r="B125">
-        <v>1.394638061523438</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>1.3946380615234379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1.379695166560862</v>
+        <v>1.3796951665608621</v>
       </c>
       <c r="B126">
         <v>1.37659764289856</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1.368658632393568</v>
+        <v>1.3686586323935681</v>
       </c>
       <c r="B127">
-        <v>1.385601043701172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>1.3856010437011721</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.362737177909644</v>
       </c>
       <c r="B128">
-        <v>1.373858451843262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>1.3738584518432619</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1.363405113392807</v>
+        <v>1.3634051133928069</v>
       </c>
       <c r="B129">
-        <v>1.363257646560669</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>1.3632576465606689</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1.351864603530523</v>
+        <v>1.3518646035305231</v>
       </c>
       <c r="B130">
         <v>1.362524151802063</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1.354796972965262</v>
       </c>
       <c r="B131">
-        <v>1.352771162986755</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>1.3527711629867549</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.341051440640485</v>
       </c>
       <c r="B132">
-        <v>1.356989026069641</v>
+        <v>1.3569890260696409</v>
       </c>
     </row>
   </sheetData>
